--- a/etc/doc/sample_rebalancing.xlsx
+++ b/etc/doc/sample_rebalancing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\플랫폼_2018\시뮬레이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\etp\etc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,11 +115,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[선택사항] 종목별 비중을 입력합니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[선택사항] 종목별 비중(단위: %)을 입력합니다. &lt;예시&gt;비중이 12.35 %일경우, '12.35'를 입력합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -564,7 +564,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>0.34</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>0.34</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
